--- a/Crawling/crawling_data/week_genie/week_genie_20220228.xlsx
+++ b/Crawling/crawling_data/week_genie/week_genie_20220228.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="404" uniqueCount="235">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="404" uniqueCount="234">
   <si>
     <t>날짜</t>
   </si>
@@ -46,8 +46,7 @@
     <t>취중고백</t>
   </si>
   <si>
-    <t>19금
-                                    abcdefu</t>
+    <t>abcdefu</t>
   </si>
   <si>
     <t>회전목마 (Feat. Zion.T &amp; 원슈타인) (Prod. by Slom)</t>
@@ -263,8 +262,7 @@
     <t>추억은 만남보다 이별에 남아</t>
   </si>
   <si>
-    <t>19금
-                                    Peaches (Feat. Daniel Caesar &amp; Giveon)</t>
+    <t>Peaches (Feat. Daniel Caesar &amp; Giveon)</t>
   </si>
   <si>
     <t>Christmas Tree</t>
@@ -544,9 +542,6 @@
   </si>
   <si>
     <t>INVU - The 3rd Album</t>
-  </si>
-  <si>
-    <t>abcdefu</t>
   </si>
   <si>
     <t>쇼미더머니 10 Episode 2</t>
@@ -1183,7 +1178,7 @@
         <v>110</v>
       </c>
       <c r="E6" t="s">
-        <v>176</v>
+        <v>10</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -1200,7 +1195,7 @@
         <v>111</v>
       </c>
       <c r="E7" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -1217,7 +1212,7 @@
         <v>112</v>
       </c>
       <c r="E8" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -1234,7 +1229,7 @@
         <v>113</v>
       </c>
       <c r="E9" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -1251,7 +1246,7 @@
         <v>114</v>
       </c>
       <c r="E10" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -1285,7 +1280,7 @@
         <v>116</v>
       </c>
       <c r="E12" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -1302,7 +1297,7 @@
         <v>117</v>
       </c>
       <c r="E13" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -1370,7 +1365,7 @@
         <v>121</v>
       </c>
       <c r="E17" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -1421,7 +1416,7 @@
         <v>117</v>
       </c>
       <c r="E20" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -1438,7 +1433,7 @@
         <v>124</v>
       </c>
       <c r="E21" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -1455,7 +1450,7 @@
         <v>120</v>
       </c>
       <c r="E22" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -1472,7 +1467,7 @@
         <v>125</v>
       </c>
       <c r="E23" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -1489,7 +1484,7 @@
         <v>126</v>
       </c>
       <c r="E24" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -1523,7 +1518,7 @@
         <v>106</v>
       </c>
       <c r="E26" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="27" spans="1:5">
@@ -1574,7 +1569,7 @@
         <v>123</v>
       </c>
       <c r="E29" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="30" spans="1:5">
@@ -1609,7 +1604,7 @@
         <v>117</v>
       </c>
       <c r="E31" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="32" spans="1:5">
@@ -1626,7 +1621,7 @@
         <v>130</v>
       </c>
       <c r="E32" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="33" spans="1:5">
@@ -1643,7 +1638,7 @@
         <v>131</v>
       </c>
       <c r="E33" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="34" spans="1:5">
@@ -1694,7 +1689,7 @@
         <v>133</v>
       </c>
       <c r="E36" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="37" spans="1:5">
@@ -1728,7 +1723,7 @@
         <v>135</v>
       </c>
       <c r="E38" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="39" spans="1:5">
@@ -1745,7 +1740,7 @@
         <v>123</v>
       </c>
       <c r="E39" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="40" spans="1:5">
@@ -1779,7 +1774,7 @@
         <v>123</v>
       </c>
       <c r="E41" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="42" spans="1:5">
@@ -1796,7 +1791,7 @@
         <v>137</v>
       </c>
       <c r="E42" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="43" spans="1:5">
@@ -1813,7 +1808,7 @@
         <v>123</v>
       </c>
       <c r="E43" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="44" spans="1:5">
@@ -1830,7 +1825,7 @@
         <v>127</v>
       </c>
       <c r="E44" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="45" spans="1:5">
@@ -1847,7 +1842,7 @@
         <v>127</v>
       </c>
       <c r="E45" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="46" spans="1:5">
@@ -1864,7 +1859,7 @@
         <v>138</v>
       </c>
       <c r="E46" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="47" spans="1:5">
@@ -1881,7 +1876,7 @@
         <v>112</v>
       </c>
       <c r="E47" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="48" spans="1:5">
@@ -1898,7 +1893,7 @@
         <v>139</v>
       </c>
       <c r="E48" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="49" spans="1:5">
@@ -1915,7 +1910,7 @@
         <v>140</v>
       </c>
       <c r="E49" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="50" spans="1:5">
@@ -1983,7 +1978,7 @@
         <v>143</v>
       </c>
       <c r="E53" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="54" spans="1:5">
@@ -2000,7 +1995,7 @@
         <v>108</v>
       </c>
       <c r="E54" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="55" spans="1:5">
@@ -2017,7 +2012,7 @@
         <v>144</v>
       </c>
       <c r="E55" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="56" spans="1:5">
@@ -2034,7 +2029,7 @@
         <v>145</v>
       </c>
       <c r="E56" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="57" spans="1:5">
@@ -2051,7 +2046,7 @@
         <v>146</v>
       </c>
       <c r="E57" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="58" spans="1:5">
@@ -2068,7 +2063,7 @@
         <v>112</v>
       </c>
       <c r="E58" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="59" spans="1:5">
@@ -2085,7 +2080,7 @@
         <v>147</v>
       </c>
       <c r="E59" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="60" spans="1:5">
@@ -2102,7 +2097,7 @@
         <v>123</v>
       </c>
       <c r="E60" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="61" spans="1:5">
@@ -2119,7 +2114,7 @@
         <v>123</v>
       </c>
       <c r="E61" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="62" spans="1:5">
@@ -2136,7 +2131,7 @@
         <v>148</v>
       </c>
       <c r="E62" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="63" spans="1:5">
@@ -2153,7 +2148,7 @@
         <v>149</v>
       </c>
       <c r="E63" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="64" spans="1:5">
@@ -2170,7 +2165,7 @@
         <v>144</v>
       </c>
       <c r="E64" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="65" spans="1:5">
@@ -2187,7 +2182,7 @@
         <v>150</v>
       </c>
       <c r="E65" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="66" spans="1:5">
@@ -2204,7 +2199,7 @@
         <v>139</v>
       </c>
       <c r="E66" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="67" spans="1:5">
@@ -2221,7 +2216,7 @@
         <v>151</v>
       </c>
       <c r="E67" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="68" spans="1:5">
@@ -2238,7 +2233,7 @@
         <v>152</v>
       </c>
       <c r="E68" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="69" spans="1:5">
@@ -2255,7 +2250,7 @@
         <v>138</v>
       </c>
       <c r="E69" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="70" spans="1:5">
@@ -2272,7 +2267,7 @@
         <v>153</v>
       </c>
       <c r="E70" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="71" spans="1:5">
@@ -2306,7 +2301,7 @@
         <v>154</v>
       </c>
       <c r="E72" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="73" spans="1:5">
@@ -2374,7 +2369,7 @@
         <v>158</v>
       </c>
       <c r="E76" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="77" spans="1:5">
@@ -2408,7 +2403,7 @@
         <v>151</v>
       </c>
       <c r="E78" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="79" spans="1:5">
@@ -2425,7 +2420,7 @@
         <v>160</v>
       </c>
       <c r="E79" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="80" spans="1:5">
@@ -2442,7 +2437,7 @@
         <v>120</v>
       </c>
       <c r="E80" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="81" spans="1:5">
@@ -2459,7 +2454,7 @@
         <v>123</v>
       </c>
       <c r="E81" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="82" spans="1:5">
@@ -2510,7 +2505,7 @@
         <v>117</v>
       </c>
       <c r="E84" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="85" spans="1:5">
@@ -2544,7 +2539,7 @@
         <v>164</v>
       </c>
       <c r="E86" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="87" spans="1:5">
@@ -2561,7 +2556,7 @@
         <v>165</v>
       </c>
       <c r="E87" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="88" spans="1:5">
@@ -2578,7 +2573,7 @@
         <v>166</v>
       </c>
       <c r="E88" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="89" spans="1:5">
@@ -2629,7 +2624,7 @@
         <v>168</v>
       </c>
       <c r="E91" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="92" spans="1:5">
@@ -2646,7 +2641,7 @@
         <v>169</v>
       </c>
       <c r="E92" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="93" spans="1:5">
@@ -2680,7 +2675,7 @@
         <v>170</v>
       </c>
       <c r="E94" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="95" spans="1:5">
@@ -2697,7 +2692,7 @@
         <v>171</v>
       </c>
       <c r="E95" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="96" spans="1:5">
@@ -2731,7 +2726,7 @@
         <v>139</v>
       </c>
       <c r="E97" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="98" spans="1:5">
@@ -2799,7 +2794,7 @@
         <v>170</v>
       </c>
       <c r="E101" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
   </sheetData>
